--- a/Modelos UML/Descrição UseCases/Registar.xlsx
+++ b/Modelos UML/Descrição UseCases/Registar.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\UseCase\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F085F-AAC9-44FC-8276-7AB5059B1584}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Actor input</t>
   </si>
@@ -99,12 +98,15 @@
     <t>Alternativa 2
 [Dados inválidos]
 (Passo 5)</t>
+  </si>
+  <si>
+    <t>Regressa a 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -705,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,7 +836,9 @@
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">

--- a/Modelos UML/Descrição UseCases/Registar.xlsx
+++ b/Modelos UML/Descrição UseCases/Registar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D4FDA-43AE-4860-A5B7-51AC33B083AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Actor input</t>
   </si>
@@ -72,41 +73,44 @@
     <t>4. Apresenta dados pessoais</t>
   </si>
   <si>
-    <t>5. Regista cliente</t>
-  </si>
-  <si>
-    <t>5.1. Informa cliente que já está registado</t>
-  </si>
-  <si>
-    <t>5.1.1. Informa cliente que os dados são inválidos</t>
-  </si>
-  <si>
-    <t>6. Informa cliente de que foi registado</t>
-  </si>
-  <si>
     <t>Regressa a 4</t>
   </si>
   <si>
-    <t>5.2. Sai do ecrã de registo</t>
+    <t>Regressa a 1</t>
+  </si>
+  <si>
+    <t>5. Verifica Dados</t>
+  </si>
+  <si>
+    <t>6. Regista Cliente</t>
+  </si>
+  <si>
+    <t>7. Informa cliente de que foi registado com sucesso</t>
   </si>
   <si>
     <t>Alternativa 1
 [Cliente já registado]
-(Passo 5)</t>
+(Passo 6)</t>
+  </si>
+  <si>
+    <t>6.1. Informa cliente que já está registado</t>
+  </si>
+  <si>
+    <t>6.2. Sai do ecrã de registo</t>
   </si>
   <si>
     <t>Alternativa 2
 [Dados inválidos]
-(Passo 5)</t>
-  </si>
-  <si>
-    <t>Regressa a 1</t>
+(Passo 6)</t>
+  </si>
+  <si>
+    <t>6.1.1. Informa cliente que os dados são inválidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -707,11 +711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -802,7 +806,7 @@
       <c r="B11" s="26"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -815,45 +819,47 @@
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="26"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="13" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="9"/>
       <c r="D18" s="11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/Modelos UML/Descrição UseCases/Registar.xlsx
+++ b/Modelos UML/Descrição UseCases/Registar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510D4FDA-43AE-4860-A5B7-51AC33B083AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,29 +87,29 @@
     <t>7. Informa cliente de que foi registado com sucesso</t>
   </si>
   <si>
-    <t>Alternativa 1
-[Cliente já registado]
-(Passo 6)</t>
-  </si>
-  <si>
-    <t>6.1. Informa cliente que já está registado</t>
-  </si>
-  <si>
-    <t>6.2. Sai do ecrã de registo</t>
-  </si>
-  <si>
     <t>Alternativa 2
 [Dados inválidos]
 (Passo 6)</t>
   </si>
   <si>
-    <t>6.1.1. Informa cliente que os dados são inválidos</t>
+    <t>Alternativa 1
+[Cliente já registado]
+(Passo 5)</t>
+  </si>
+  <si>
+    <t>5.1. Informa cliente que já está registado</t>
+  </si>
+  <si>
+    <t>5.2. Sai do ecrã de registo</t>
+  </si>
+  <si>
+    <t>5.1.1. Informa cliente que os dados são inválidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -711,11 +710,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -825,18 +824,18 @@
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -848,7 +847,7 @@
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="13" t="s">

--- a/Modelos UML/Descrição UseCases/Registar.xlsx
+++ b/Modelos UML/Descrição UseCases/Registar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E7E53-8E4A-4C74-B7A5-7342379541BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Actor input</t>
   </si>
@@ -72,9 +73,6 @@
     <t>4. Apresenta dados pessoais</t>
   </si>
   <si>
-    <t>Regressa a 4</t>
-  </si>
-  <si>
     <t>Regressa a 1</t>
   </si>
   <si>
@@ -87,29 +85,21 @@
     <t>7. Informa cliente de que foi registado com sucesso</t>
   </si>
   <si>
-    <t>Alternativa 2
-[Dados inválidos]
-(Passo 6)</t>
-  </si>
-  <si>
-    <t>Alternativa 1
+    <t>5.1. Informa cliente que já está registado</t>
+  </si>
+  <si>
+    <t>5.2. Sai do ecrã de registo</t>
+  </si>
+  <si>
+    <t>Exceção 1
 [Cliente já registado]
 (Passo 5)</t>
-  </si>
-  <si>
-    <t>5.1. Informa cliente que já está registado</t>
-  </si>
-  <si>
-    <t>5.2. Sai do ecrã de registo</t>
-  </si>
-  <si>
-    <t>5.1.1. Informa cliente que os dados são inválidos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -140,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -278,7 +268,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -286,42 +278,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -335,59 +292,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,6 +335,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,141 +684,135 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22"/>
+      <c r="D3" s="13"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="20"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="20"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
+      <c r="B16" s="11"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Modelos UML/Descrição UseCases/Registar.xlsx
+++ b/Modelos UML/Descrição UseCases/Registar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmcca\Documents\3º Ano\DSS\Trabalho\DSS\DSS\Modelos UML\Descrição UseCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\Luís\3º ano\1º Semestre\DSS\Trabalho\DSS\Modelos UML\Descrição UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E7E53-8E4A-4C74-B7A5-7342379541BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,21 +84,21 @@
     <t>7. Informa cliente de que foi registado com sucesso</t>
   </si>
   <si>
-    <t>5.1. Informa cliente que já está registado</t>
-  </si>
-  <si>
     <t>5.2. Sai do ecrã de registo</t>
   </si>
   <si>
     <t>Exceção 1
 [Cliente já registado]
 (Passo 5)</t>
+  </si>
+  <si>
+    <t>5.1. Informa cliente que já existe um user com o email com o qual se pretendia registar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -311,46 +310,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,11 +663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -676,7 +675,7 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
     <col min="3" max="3" width="44.25" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
+    <col min="4" max="4" width="86.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -684,40 +683,40 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -728,91 +727,91 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="16"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="17"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="17"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="17"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="4"/>
       <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
-        <v>21</v>
+      <c r="B14" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
